--- a/Instances/04_SlowMoving_b4_fe25_en_rk50_ll0_l40.xlsx
+++ b/Instances/04_SlowMoving_b4_fe25_en_rk50_ll0_l40.xlsx
@@ -2270,13 +2270,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>213.84</v>
+        <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>54.12</v>
+        <v>0.021648</v>
       </c>
       <c r="F2" t="n">
-        <v>855.36</v>
+        <v>0.342144</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8553.6</v>
+        <v>3.42144</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2299,22 +2299,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>209.79</v>
+        <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>9.08</v>
+        <v>0.003632</v>
       </c>
       <c r="F3" t="n">
-        <v>839.16</v>
+        <v>0.335664</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>8391.6</v>
+        <v>3.35664</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2328,22 +2328,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>210.04</v>
+        <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>15.1</v>
+        <v>0.00604</v>
       </c>
       <c r="F4" t="n">
-        <v>840.1600000000001</v>
+        <v>0.336064</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>8401.6</v>
+        <v>3.36064</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2357,13 +2357,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>208.93</v>
+        <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>17.1</v>
+        <v>0.006840000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>835.72</v>
+        <v>0.334288</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>8357.200000000001</v>
+        <v>3.34288</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2386,22 +2386,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>204.98</v>
+        <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>8.02</v>
+        <v>0.003208</v>
       </c>
       <c r="F6" t="n">
-        <v>819.92</v>
+        <v>0.327968</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>8199.199999999999</v>
+        <v>3.27968</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2415,22 +2415,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>205.44</v>
+        <v>0.082176</v>
       </c>
       <c r="E7" t="n">
-        <v>8.039999999999999</v>
+        <v>0.003216</v>
       </c>
       <c r="F7" t="n">
-        <v>821.7600000000001</v>
+        <v>0.328704</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>8217.6</v>
+        <v>3.28704</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2444,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>204.56</v>
+        <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>7.92</v>
+        <v>0.003168</v>
       </c>
       <c r="F8" t="n">
-        <v>818.24</v>
+        <v>0.327296</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>8182.4</v>
+        <v>3.27296</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2473,22 +2473,22 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>216.41</v>
+        <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>5.14</v>
+        <v>0.002056</v>
       </c>
       <c r="F9" t="n">
-        <v>865.64</v>
+        <v>0.346256</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>8656.4</v>
+        <v>3.46256</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2502,22 +2502,22 @@
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>216</v>
+        <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>4.32</v>
+        <v>0.001728</v>
       </c>
       <c r="F10" t="n">
-        <v>864</v>
+        <v>0.3456</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>8640</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2531,22 +2531,22 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>214.89</v>
+        <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>2.1</v>
+        <v>0.00084</v>
       </c>
       <c r="F11" t="n">
-        <v>859.5600000000001</v>
+        <v>0.343824</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>8595.6</v>
+        <v>3.43824</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2560,22 +2560,22 @@
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>216.3</v>
+        <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>14.74</v>
+        <v>0.005896</v>
       </c>
       <c r="F12" t="n">
-        <v>865.2</v>
+        <v>0.3460800000000001</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>8652</v>
+        <v>3.460800000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2589,13 +2589,13 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>204.82</v>
+        <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>58.19999999999995</v>
+        <v>0.02327999999999998</v>
       </c>
       <c r="F13" t="n">
-        <v>819.28</v>
+        <v>0.327712</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>8192.799999999999</v>
+        <v>3.27712</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2618,13 +2618,13 @@
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>205.25</v>
+        <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>20.26</v>
+        <v>0.008104000000000002</v>
       </c>
       <c r="F14" t="n">
-        <v>821</v>
+        <v>0.3284</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>8210</v>
+        <v>3.284</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2647,13 +2647,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>202.49</v>
+        <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>14.74</v>
+        <v>0.005896</v>
       </c>
       <c r="F15" t="n">
-        <v>809.96</v>
+        <v>0.323984</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>8099.6</v>
+        <v>3.23984</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2676,13 +2676,13 @@
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>200.38</v>
+        <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>10.52</v>
+        <v>0.004208</v>
       </c>
       <c r="F16" t="n">
-        <v>801.52</v>
+        <v>0.320608</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>8015.2</v>
+        <v>3.20608</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2705,13 +2705,13 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>200.97</v>
+        <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>11.7</v>
+        <v>0.00468</v>
       </c>
       <c r="F17" t="n">
-        <v>803.88</v>
+        <v>0.321552</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>8038.8</v>
+        <v>3.21552</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2734,13 +2734,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>201.42</v>
+        <v>0.080568</v>
       </c>
       <c r="E18" t="n">
-        <v>12.6</v>
+        <v>0.00504</v>
       </c>
       <c r="F18" t="n">
-        <v>805.6800000000001</v>
+        <v>0.322272</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>8056.800000000001</v>
+        <v>3.22272</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2763,13 +2763,13 @@
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>200.6</v>
+        <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>10.96</v>
+        <v>0.004384000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>802.4</v>
+        <v>0.32096</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>8024</v>
+        <v>3.2096</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2792,13 +2792,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>26.3</v>
+        <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>473.4</v>
+        <v>0.18936</v>
       </c>
       <c r="F20" t="n">
-        <v>105.2</v>
+        <v>0.04208000000000001</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1052</v>
+        <v>0.4208000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2821,13 +2821,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>27.92</v>
+        <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>502.5600000000001</v>
+        <v>0.201024</v>
       </c>
       <c r="F21" t="n">
-        <v>111.68</v>
+        <v>0.044672</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1116.8</v>
+        <v>0.44672</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2850,13 +2850,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>34.56</v>
+        <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>622.08</v>
+        <v>0.248832</v>
       </c>
       <c r="F22" t="n">
-        <v>138.24</v>
+        <v>0.055296</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1382.4</v>
+        <v>0.55296</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2879,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>106.34</v>
+        <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>1914.12</v>
+        <v>0.7656480000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>425.36</v>
+        <v>0.170144</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4253.6</v>
+        <v>1.70144</v>
       </c>
     </row>
   </sheetData>
@@ -3363,34 +3363,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3434,34 +3434,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3505,34 +3505,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3576,34 +3576,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>

--- a/Instances/04_SlowMoving_b4_fe25_en_rk50_ll0_l40.xlsx
+++ b/Instances/04_SlowMoving_b4_fe25_en_rk50_ll0_l40.xlsx
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
@@ -2499,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
@@ -2528,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
@@ -2557,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
@@ -2615,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
@@ -2644,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
@@ -2731,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0.080568</v>
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>56</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3676,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>630</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3684,7 +3684,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>630</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3692,7 +3692,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5940</v>
+        <v>14850</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_SlowMoving_b4_fe25_en_rk50_ll0_l40.xlsx
+++ b/Instances/04_SlowMoving_b4_fe25_en_rk50_ll0_l40.xlsx
@@ -522,7 +522,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2908,7 +2908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3265,6 +3265,77 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3279,7 +3350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3636,6 +3707,77 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>0</v>
       </c>
     </row>
